--- a/F_dataset/DUD-E/KPCB/KPCB_prepare/KPCB_active.xlsx
+++ b/F_dataset/DUD-E/KPCB/KPCB_prepare/KPCB_active.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T153"/>
+  <dimension ref="A1:T136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8365,1434 +8365,6 @@
       <c r="S136" t="inlineStr"/>
       <c r="T136" t="inlineStr"/>
     </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>CHEMBL2151412</t>
-        </is>
-      </c>
-      <c r="B137" t="n">
-        <v>1</v>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>CN1CCN(c2nc(C3=C(c4cn(C)c5ccccc45)C(=O)NC3=O)c3ccccc3n2)CC1</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G137" t="n">
-        <v>452.52</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>6</v>
-      </c>
-      <c r="J137" t="n">
-        <v>3</v>
-      </c>
-      <c r="K137" t="n">
-        <v>6</v>
-      </c>
-      <c r="L137" t="n">
-        <v>4</v>
-      </c>
-      <c r="M137" t="n">
-        <v>83.36</v>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>CHEMBL2156012</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta-1 by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>CHEMBL430694</t>
-        </is>
-      </c>
-      <c r="B138" t="n">
-        <v>1</v>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cn(CCCO)c3ncccc23)=C1c1cccc2ccccc12</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cn(CCCO)c3ncccc23)=C1c1cccc2ccccc12</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G138" t="n">
-        <v>397.43</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>4</v>
-      </c>
-      <c r="J138" t="n">
-        <v>5</v>
-      </c>
-      <c r="K138" t="n">
-        <v>5</v>
-      </c>
-      <c r="L138" t="n">
-        <v>4</v>
-      </c>
-      <c r="M138" t="n">
-        <v>84.22</v>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q138" t="n">
-        <v>270</v>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>CHEMBL759475</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>Inhibitory concentration against human protein kinase C-betaII using histone as substrate</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>CHEMBL4128457</t>
-        </is>
-      </c>
-      <c r="B139" t="n">
-        <v>1</v>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>C[C@@H]1CC(=O)Nc2ncnc(N3CCC(c4nc(-c5ccc(F)c(C(F)(F)F)c5)cn4CCN4CCCC4)CC3)c21</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>C[C@@H]1CC(=O)Nc2ncnc(N3CCC(c4nc(-c5ccc(F)c(C(F)(F)F)c5)cn4CCN4CCCC4)CC3)c21</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G139" t="n">
-        <v>571.62</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>6</v>
-      </c>
-      <c r="J139" t="n">
-        <v>6</v>
-      </c>
-      <c r="K139" t="n">
-        <v>6</v>
-      </c>
-      <c r="L139" t="n">
-        <v>3</v>
-      </c>
-      <c r="M139" t="n">
-        <v>79.18000000000001</v>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q139" t="n">
-        <v>36</v>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>CHEMBL4121777</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>Inhibition of human PKCbeta2 measured at apparent ATP Km level</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>CHEMBL4102228</t>
-        </is>
-      </c>
-      <c r="B140" t="n">
-        <v>1</v>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>CN(C)Cc1ccc2ccc(Cl)c(C3=C(c4c[nH]c5ccccc45)C(=O)NC3=O)c2c1</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>CN(C)Cc1ccc2ccc(Cl)c(C3=C(c4c[nH]c5ccccc45)C(=O)NC3=O)c2c1</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G140" t="n">
-        <v>429.91</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3</v>
-      </c>
-      <c r="J140" t="n">
-        <v>4</v>
-      </c>
-      <c r="K140" t="n">
-        <v>5</v>
-      </c>
-      <c r="L140" t="n">
-        <v>4</v>
-      </c>
-      <c r="M140" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q140" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>CHEMBL4004541</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta1 (unknown origin) after 60 mins in presence of [gamma33P]ATP by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>CHEMBL362558</t>
-        </is>
-      </c>
-      <c r="B141" t="n">
-        <v>1</v>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cnc3ccccn23)=C1c1cn2c3c(cc(F)cc13)CN(C(=O)N1CCCCC1)CC2</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>O=C1NC(=O)C(c2cnc3ccccn23)=C1c1cn2c3c(cc(F)cc13)CN(C(=O)N1CCCCC1)CC2</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G141" t="n">
-        <v>512.55</v>
-      </c>
-      <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>4</v>
-      </c>
-      <c r="J141" t="n">
-        <v>2</v>
-      </c>
-      <c r="K141" t="n">
-        <v>7</v>
-      </c>
-      <c r="L141" t="n">
-        <v>4</v>
-      </c>
-      <c r="M141" t="n">
-        <v>91.95</v>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q141" t="n">
-        <v>420</v>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>CHEMBL829308</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>Inhibition of human Protein kinase C beta 2</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>CHEMBL2147538</t>
-        </is>
-      </c>
-      <c r="B142" t="n">
-        <v>1</v>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>CC(C)(N)CNc1nc(-c2ccncc2)cc2cnccc12</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>CC(C)(N)CNc1nc(-c2ccncc2)cc2cnccc12</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G142" t="n">
-        <v>293.37</v>
-      </c>
-      <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5</v>
-      </c>
-      <c r="J142" t="n">
-        <v>4</v>
-      </c>
-      <c r="K142" t="n">
-        <v>3</v>
-      </c>
-      <c r="L142" t="n">
-        <v>3</v>
-      </c>
-      <c r="M142" t="n">
-        <v>76.72</v>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q142" t="n">
-        <v>942</v>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>CHEMBL2150521</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant human PKCbeta1 assessed as [33P]-ATP incorporation into tridecapeptide substrate after 60 mins by scintillation proximity assay</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>CHEMBL350335</t>
-        </is>
-      </c>
-      <c r="B143" t="n">
-        <v>1</v>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3s2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>N=C(N)SCCCn1c(-c2cc3ccccc3s2)c(C2=CC(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G143" t="n">
-        <v>460.58</v>
-      </c>
-      <c r="H143" t="n">
-        <v>3</v>
-      </c>
-      <c r="I143" t="n">
-        <v>4</v>
-      </c>
-      <c r="J143" t="n">
-        <v>6</v>
-      </c>
-      <c r="K143" t="n">
-        <v>5</v>
-      </c>
-      <c r="L143" t="n">
-        <v>4</v>
-      </c>
-      <c r="M143" t="n">
-        <v>100.97</v>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q143" t="n">
-        <v>3</v>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>CHEMBL761751</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>Inhibition of protein kinase C beta</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>CHEMBL365656</t>
-        </is>
-      </c>
-      <c r="B144" t="n">
-        <v>1</v>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>CN(C)CCCn1cc(C2=C(Nc3ccccc3)C(=O)NC2=O)c2ccccc21</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G144" t="n">
-        <v>388.47</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="n">
-        <v>4</v>
-      </c>
-      <c r="J144" t="n">
-        <v>7</v>
-      </c>
-      <c r="K144" t="n">
-        <v>4</v>
-      </c>
-      <c r="L144" t="n">
-        <v>3</v>
-      </c>
-      <c r="M144" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P144" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q144" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="R144" t="inlineStr">
-        <is>
-          <t>CHEMBL3063098</t>
-        </is>
-      </c>
-      <c r="S144" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta2 (unknown origin)</t>
-        </is>
-      </c>
-      <c r="T144" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>CHEMBL388978</t>
-        </is>
-      </c>
-      <c r="B145" t="n">
-        <v>1</v>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>CN[C@@H]1C[C@H]2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>CN[C@@H]1C[C@H]2O[C@@](C)([C@@H]1OC)n1c3ccccc3c3c4c(c5c6ccccc6n2c5c31)C(=O)NC4</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G145" t="n">
-        <v>466.54</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="n">
-        <v>4</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2</v>
-      </c>
-      <c r="K145" t="n">
-        <v>8</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5</v>
-      </c>
-      <c r="M145" t="n">
-        <v>69.45</v>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P145" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q145" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="R145" t="inlineStr">
-        <is>
-          <t>CHEMBL768280</t>
-        </is>
-      </c>
-      <c r="S145" t="inlineStr">
-        <is>
-          <t>Inhibition of Protein kinase C beta 2</t>
-        </is>
-      </c>
-      <c r="T145" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>CHEMBL80525</t>
-        </is>
-      </c>
-      <c r="B146" t="n">
-        <v>1</v>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>O=C(N[C@@H]1C2CCC(C2)[C@H]1OC(=O)c1cc(O)c(C(=O)c2c(O)cccc2C(=O)O)c(O)c1)c1ccc(O)cc1</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G146" t="n">
-        <v>547.52</v>
-      </c>
-      <c r="H146" t="n">
-        <v>6</v>
-      </c>
-      <c r="I146" t="n">
-        <v>10</v>
-      </c>
-      <c r="J146" t="n">
-        <v>7</v>
-      </c>
-      <c r="K146" t="n">
-        <v>5</v>
-      </c>
-      <c r="L146" t="n">
-        <v>3</v>
-      </c>
-      <c r="M146" t="n">
-        <v>190.69</v>
-      </c>
-      <c r="N146" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O146" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P146" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q146" t="n">
-        <v>40</v>
-      </c>
-      <c r="R146" t="inlineStr">
-        <is>
-          <t>CHEMBL768098</t>
-        </is>
-      </c>
-      <c r="S146" t="inlineStr">
-        <is>
-          <t>Inhibitory concentration against recombinant human Protein kinase C beta 2 isozyme</t>
-        </is>
-      </c>
-      <c r="T146" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>CHEMBL2046643</t>
-        </is>
-      </c>
-      <c r="B147" t="n">
-        <v>1</v>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>CC(C)C[C@H]1CN(c2ccc(C(F)(F)F)c(C(=O)c3cccnc3N)n2)CCN1</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>CC(C)C[C@H]1CN(c2ccc(C(F)(F)F)c(C(=O)c3cccnc3N)n2)CCN1</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G147" t="n">
-        <v>407.44</v>
-      </c>
-      <c r="H147" t="n">
-        <v>2</v>
-      </c>
-      <c r="I147" t="n">
-        <v>6</v>
-      </c>
-      <c r="J147" t="n">
-        <v>5</v>
-      </c>
-      <c r="K147" t="n">
-        <v>3</v>
-      </c>
-      <c r="L147" t="n">
-        <v>2</v>
-      </c>
-      <c r="M147" t="n">
-        <v>84.14</v>
-      </c>
-      <c r="N147" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O147" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P147" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q147" t="n">
-        <v>260</v>
-      </c>
-      <c r="R147" t="inlineStr">
-        <is>
-          <t>CHEMBL2049856</t>
-        </is>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>Inhibition of PKCbeta</t>
-        </is>
-      </c>
-      <c r="T147" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>CHEMBL440201</t>
-        </is>
-      </c>
-      <c r="B148" t="n">
-        <v>1</v>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>CCCCCCCCC#Cc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>CCCCCCCCC#Cc1ccc2c(c1)[C@](C)(C(C)C)[C@H]1C(=O)N[C@H](CO)[C@@H]21</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G148" t="n">
-        <v>395.59</v>
-      </c>
-      <c r="H148" t="n">
-        <v>2</v>
-      </c>
-      <c r="I148" t="n">
-        <v>2</v>
-      </c>
-      <c r="J148" t="n">
-        <v>8</v>
-      </c>
-      <c r="K148" t="n">
-        <v>3</v>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="n">
-        <v>49.33</v>
-      </c>
-      <c r="N148" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O148" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P148" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q148" t="n">
-        <v>701</v>
-      </c>
-      <c r="R148" t="inlineStr">
-        <is>
-          <t>CHEMBL823901</t>
-        </is>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>Inhibition of [3H]-phorbol 12,13-dibutyrate (PDBu) binding to human recombinant protein kinase C beta</t>
-        </is>
-      </c>
-      <c r="T148" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>CHEMBL3901971</t>
-        </is>
-      </c>
-      <c r="B149" t="n">
-        <v>1</v>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>CC1c2[nH]nc(NC(=O)c3ccccc3)c2CN1C(=O)N1CCN(C)C[C@@H]1Cc1ccccc1</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>CC1c2[nH]nc(NC(=O)c3ccccc3)c2CN1C(=O)N1CCN(C)C[C@@H]1Cc1ccccc1</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G149" t="n">
-        <v>458.57</v>
-      </c>
-      <c r="H149" t="n">
-        <v>2</v>
-      </c>
-      <c r="I149" t="n">
-        <v>4</v>
-      </c>
-      <c r="J149" t="n">
-        <v>4</v>
-      </c>
-      <c r="K149" t="n">
-        <v>5</v>
-      </c>
-      <c r="L149" t="n">
-        <v>3</v>
-      </c>
-      <c r="M149" t="n">
-        <v>84.56999999999999</v>
-      </c>
-      <c r="N149" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O149" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P149" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q149" t="n">
-        <v>189</v>
-      </c>
-      <c r="R149" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S149" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T149" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>CHEMBL3662782</t>
-        </is>
-      </c>
-      <c r="B150" t="n">
-        <v>1</v>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>CC[C@H]1CN2CCC[C@H]2CN1C(=O)N1Cc2c(NC(=O)c3ccccn3)n[nH]c2C1(C)C</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>CC[C@H]1CN2CCC[C@H]2CN1C(=O)N1Cc2c(NC(=O)c3ccccn3)n[nH]c2C1(C)C</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G150" t="n">
-        <v>437.55</v>
-      </c>
-      <c r="H150" t="n">
-        <v>2</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5</v>
-      </c>
-      <c r="J150" t="n">
-        <v>3</v>
-      </c>
-      <c r="K150" t="n">
-        <v>5</v>
-      </c>
-      <c r="L150" t="n">
-        <v>2</v>
-      </c>
-      <c r="M150" t="n">
-        <v>97.45999999999999</v>
-      </c>
-      <c r="N150" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O150" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P150" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q150" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="R150" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T150" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>CHEMBL3667490</t>
-        </is>
-      </c>
-      <c r="B151" t="n">
-        <v>1</v>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Cc1noc(C)c1CC(=O)Nc1n[nH]c2c1CN(C(=O)N1C[C@@H](C)N(CC3CCOCC3)C[C@@H]1C)C2(C)C</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Cc1noc(C)c1CC(=O)Nc1n[nH]c2c1CN(C(=O)N1C[C@@H](C)N(CC3CCOCC3)C[C@@H]1C)C2(C)C</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G151" t="n">
-        <v>527.67</v>
-      </c>
-      <c r="H151" t="n">
-        <v>2</v>
-      </c>
-      <c r="I151" t="n">
-        <v>7</v>
-      </c>
-      <c r="J151" t="n">
-        <v>5</v>
-      </c>
-      <c r="K151" t="n">
-        <v>5</v>
-      </c>
-      <c r="L151" t="n">
-        <v>2</v>
-      </c>
-      <c r="M151" t="n">
-        <v>119.83</v>
-      </c>
-      <c r="N151" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O151" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P151" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q151" t="n">
-        <v>20</v>
-      </c>
-      <c r="R151" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T151" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>CHEMBL3662872</t>
-        </is>
-      </c>
-      <c r="B152" t="n">
-        <v>1</v>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>CN1CCC(F)(C(=O)N2Cc3c(NC(=O)c4ccc(Cl)c(Cl)c4)n[nH]c3C2(C)C)CC1</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>CN1CCC(F)(C(=O)N2Cc3c(NC(=O)c4ccc(Cl)c(Cl)c4)n[nH]c3C2(C)C)CC1</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G152" t="n">
-        <v>468.36</v>
-      </c>
-      <c r="H152" t="n">
-        <v>2</v>
-      </c>
-      <c r="I152" t="n">
-        <v>4</v>
-      </c>
-      <c r="J152" t="n">
-        <v>3</v>
-      </c>
-      <c r="K152" t="n">
-        <v>4</v>
-      </c>
-      <c r="L152" t="n">
-        <v>2</v>
-      </c>
-      <c r="M152" t="n">
-        <v>81.33</v>
-      </c>
-      <c r="N152" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P152" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q152" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="R152" t="inlineStr">
-        <is>
-          <t>CHEMBL3705825</t>
-        </is>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>Inhibition Assay: Protein Kinase C beta 2 (PKC beta II) catalyzes the production of ADP from ATP that accompanies the phosphoryl transfer to the PKC Pseudosubstrate peptide (A-&gt;S, RFARKGSLRQKNV). This transfer is coupled to the oxidation of p-NADH through the activities of Pyruvate Kinase (PK) and Lactate Dehydrogenase (LDH). (3-NADH conversion to NAD+ is monitored by the decrease in absorbance at 340 nm (e=6.22 cm-1 mM-1) using a Molecular Devices SPECTRA max PLUS spectrophotometer.A typical assay was carried out on a 96-well, clear microtiter plate in a Molecular Devices spectrophotometer for 20 minutes at 30 C. in 0.1 mL of assay buffer containing 50 mM HEPES, pH 7.4, 5 nM PKC, 23 units of pyruvate kinase, 33 units of lactate dehydrogenase, 0.15 mM peptide, 0.1 mM ATP, 1 mM DTT, 4 mM PEP, 8 mM MgCl2, 0.3 mM NADH, 60 mM CaCl2, 10 mg/mL PS, 50 ng/mL PMA, 7.5% DMSO and from about 10,000 nM to 0.169 nM compound inhibitor.</t>
-        </is>
-      </c>
-      <c r="T152" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>CHEMBL27768</t>
-        </is>
-      </c>
-      <c r="B153" t="n">
-        <v>1</v>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>CCCC(=O)O[C@@H]1[C@@H](C)[C@@]2(O)[C@@H](C=C(CO)C[C@]3(O)C(=O)C(C)=C[C@@H]23)[C@@H]2C(C)(C)[C@]12OC(=O)CCC</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>CCCC(=O)O[C@@H]1[C@@H](C)[C@@]2(O)[C@@H](C=C(CO)C[C@]3(O)C(=O)C(C)=C[C@@H]23)[C@@H]2C(C)(C)[C@]12OC(=O)CCC</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>G2 active</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G153" t="n">
-        <v>504.62</v>
-      </c>
-      <c r="H153" t="n">
-        <v>3</v>
-      </c>
-      <c r="I153" t="n">
-        <v>8</v>
-      </c>
-      <c r="J153" t="n">
-        <v>7</v>
-      </c>
-      <c r="K153" t="n">
-        <v>4</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0</v>
-      </c>
-      <c r="M153" t="n">
-        <v>130.36</v>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>Ki</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P153" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q153" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R153" t="inlineStr">
-        <is>
-          <t>CHEMBL768283</t>
-        </is>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>Displacement of 3[H]PDBu from Protein kinase C beta C1a domain</t>
-        </is>
-      </c>
-      <c r="T153" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
